--- a/data/trans_camb/P14B23-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P14B23-Habitat-trans_camb.xlsx
@@ -612,7 +612,7 @@
         <v>-0.1438324591956593</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>3.623544122490791</v>
+        <v>3.623544122490789</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>-1.106016255762331</v>
@@ -624,7 +624,7 @@
         <v>-0.607474285193723</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>0.6959136483034423</v>
+        <v>0.6959136483034416</v>
       </c>
     </row>
     <row r="5">
@@ -635,22 +635,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-1.565620853077899</v>
+        <v>-1.612779128547848</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>1.762375911048333</v>
+        <v>1.81342350998613</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-4.553483299887565</v>
+        <v>-4.359503646252065</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-4.990409000710218</v>
+        <v>-4.940814689071385</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-2.199630773696746</v>
+        <v>-2.169161604195359</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-1.063091980832511</v>
+        <v>-1.041250268941084</v>
       </c>
     </row>
     <row r="6">
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>1.341642625739103</v>
+        <v>1.260991104686866</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>6.107626778899227</v>
+        <v>5.78310057913938</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1.729458965799086</v>
+        <v>1.88784592977436</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.3748806040219287</v>
+        <v>0.1879687725694217</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>1.157093343469598</v>
+        <v>1.229160232919251</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>2.242712215823326</v>
+        <v>2.22547943427606</v>
       </c>
     </row>
     <row r="7">
@@ -690,7 +690,7 @@
         <v>-0.07313874004590752</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>1.842570537288903</v>
+        <v>1.842570537288902</v>
       </c>
       <c r="E7" s="6" t="n">
         <v>-0.1212795429735081</v>
@@ -702,7 +702,7 @@
         <v>-0.1100275342549247</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1260459325496529</v>
+        <v>0.1260459325496528</v>
       </c>
     </row>
     <row r="8">
@@ -713,22 +713,22 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.5986666382841559</v>
+        <v>-0.6008769565099003</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0.5475057580930834</v>
+        <v>0.5918522261698235</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.4188731169194559</v>
+        <v>-0.3999810612774759</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.4630607868140388</v>
+        <v>-0.4534149241801126</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.358016136912583</v>
+        <v>-0.3400160272334145</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.1726522930328858</v>
+        <v>-0.1721307267922599</v>
       </c>
     </row>
     <row r="9">
@@ -739,22 +739,22 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>1.111107192071557</v>
+        <v>0.9821433887037575</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>4.905051925990371</v>
+        <v>4.262495137396674</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.2292917644441601</v>
+        <v>0.2392286741950885</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.05355177706182396</v>
+        <v>0.02661095017865802</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.2424265533215945</v>
+        <v>0.2842865350418664</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.4563991215260348</v>
+        <v>0.4842754435389054</v>
       </c>
     </row>
     <row r="10">
@@ -778,7 +778,7 @@
         <v>-2.043028868537359</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>-1.075704915200566</v>
+        <v>-1.075704915200565</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>-1.632609328299601</v>
@@ -795,22 +795,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-2.78156509367352</v>
+        <v>-2.668593117055915</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-2.05576984541093</v>
+        <v>-1.74095930323896</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-4.218894423886599</v>
+        <v>-4.385571343439352</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-3.40347304052231</v>
+        <v>-3.610599074019313</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-2.940073695351125</v>
+        <v>-2.956014607761272</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-2.017877736727067</v>
+        <v>-2.310259057692284</v>
       </c>
     </row>
     <row r="12">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>-0.007697362867803575</v>
+        <v>-0.04235908122352066</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.9449238293378055</v>
+        <v>1.104017878785023</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.183455020358294</v>
+        <v>0.5121537332258437</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.9790253816010702</v>
+        <v>1.032249935676863</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>-0.2838626738540559</v>
+        <v>-0.2291502221238126</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.6378165779374759</v>
+        <v>0.4488112881708756</v>
       </c>
     </row>
     <row r="13">
@@ -856,7 +856,7 @@
         <v>-0.2492832246447477</v>
       </c>
       <c r="F13" s="6" t="n">
-        <v>-0.1312537449455519</v>
+        <v>-0.1312537449455518</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>-0.2952950894322655</v>
@@ -873,22 +873,22 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.7376763458443102</v>
+        <v>-0.7212843338907637</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.5445051420953841</v>
+        <v>-0.5038698453574226</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.4530353860767682</v>
+        <v>-0.4573191401861144</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.3468310416591927</v>
+        <v>-0.3599383778926423</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.4759572311908538</v>
+        <v>-0.4758376007823917</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.3136169393704182</v>
+        <v>-0.3398167218360473</v>
       </c>
     </row>
     <row r="15">
@@ -899,22 +899,22 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.04816138874526996</v>
+        <v>0.04429452602773082</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.477051081932815</v>
+        <v>0.5584382003095929</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.03790136831113235</v>
+        <v>0.07701260488933243</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.1463126110908156</v>
+        <v>0.1572791921346457</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>-0.05033001857590358</v>
+        <v>-0.03491073515346903</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1491077047770445</v>
+        <v>0.1001761572648374</v>
       </c>
     </row>
     <row r="16">
@@ -955,22 +955,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-1.588142017931279</v>
+        <v>-1.572760279342229</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-0.8654697451416605</v>
+        <v>-0.6811221686603254</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-2.929513117551882</v>
+        <v>-3.019972167777695</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-0.2235970445387804</v>
+        <v>-0.2215190924253739</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-1.723163009059324</v>
+        <v>-1.753417760895364</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.04928449990411043</v>
+        <v>0.1256158547504596</v>
       </c>
     </row>
     <row r="18">
@@ -981,22 +981,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>1.788698134238838</v>
+        <v>1.852640350815325</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>3.227245922230097</v>
+        <v>3.20477852941736</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>2.166460652991157</v>
+        <v>2.285728879401377</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>5.011191702086314</v>
+        <v>5.044938727454262</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>1.495040908775497</v>
+        <v>1.520697265110225</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>3.405711174958408</v>
+        <v>3.420833801223052</v>
       </c>
     </row>
     <row r="19">
@@ -1033,22 +1033,22 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.495146240178259</v>
+        <v>-0.5004584728298485</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.3275072345701093</v>
+        <v>-0.2743151327475165</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.3512758986908238</v>
+        <v>-0.3638201004614068</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.02966296345533572</v>
+        <v>-0.03128622266656125</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.305571111336893</v>
+        <v>-0.3061811595077733</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.0003572852841003412</v>
+        <v>0.02227879390991485</v>
       </c>
     </row>
     <row r="21">
@@ -1059,22 +1059,22 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>1.385691218362055</v>
+        <v>1.51065903576398</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>2.398137165263602</v>
+        <v>2.16454101347355</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.3728349170190737</v>
+        <v>0.3725673229332983</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.8703013576044225</v>
+        <v>0.8581090309803743</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.3618234402088504</v>
+        <v>0.3695207701294906</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.8529946188632964</v>
+        <v>0.8952810770531257</v>
       </c>
     </row>
     <row r="22">
@@ -1115,22 +1115,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-2.168981215103922</v>
+        <v>-2.016512039409775</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.06217305795761695</v>
+        <v>0.06439760945876125</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-3.489912245074271</v>
+        <v>-3.684180408955039</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-1.599277099104585</v>
+        <v>-1.605875454100772</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-2.498615256110231</v>
+        <v>-2.426092376236485</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-0.2309913328605357</v>
+        <v>-0.1860127365080072</v>
       </c>
     </row>
     <row r="24">
@@ -1141,22 +1141,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.8331552364546404</v>
+        <v>0.8537124432752782</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>3.370303031698213</v>
+        <v>3.467035622139979</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1.184598971095161</v>
+        <v>1.073424914786489</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>2.919013569510861</v>
+        <v>2.764009883426251</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.2743846889355467</v>
+        <v>0.2396598001198912</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>2.599669691418778</v>
+        <v>2.621044666901315</v>
       </c>
     </row>
     <row r="25">
@@ -1170,7 +1170,7 @@
         <v>-0.2219358788430634</v>
       </c>
       <c r="D25" s="6" t="n">
-        <v>0.6051627164376607</v>
+        <v>0.6051627164376605</v>
       </c>
       <c r="E25" s="6" t="n">
         <v>-0.1768355528789323</v>
@@ -1193,22 +1193,22 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.5886406235509575</v>
+        <v>-0.5814787400836386</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.01280684406680643</v>
+        <v>-0.006621580277828874</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.3986294222009722</v>
+        <v>-0.4117241777743754</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.1753997805286953</v>
+        <v>-0.1796982494949792</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.3982375187377755</v>
+        <v>-0.3910594799628134</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.03868312329496507</v>
+        <v>-0.03420047684721318</v>
       </c>
     </row>
     <row r="27">
@@ -1219,22 +1219,22 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.4647896610579992</v>
+        <v>0.4838470186800053</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>1.665873141286838</v>
+        <v>1.713887674548681</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.172371537454006</v>
+        <v>0.168820412990636</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.4462112708097875</v>
+        <v>0.4206133022420444</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.0621559012004112</v>
+        <v>0.05991450725912092</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.5628969968780984</v>
+        <v>0.5469541261612981</v>
       </c>
     </row>
     <row r="28">
@@ -1264,7 +1264,7 @@
         <v>-0.9166881665887805</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>0.6680804653658911</v>
+        <v>0.6680804653658896</v>
       </c>
     </row>
     <row r="29">
@@ -1275,22 +1275,22 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-1.239182449129804</v>
+        <v>-1.331968621906693</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.4861387495958867</v>
+        <v>0.5030243036113927</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-2.547443438339435</v>
+        <v>-2.620447542053252</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-1.28854355747831</v>
+        <v>-1.195174547698145</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-1.633850521370033</v>
+        <v>-1.69224809535551</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-0.08304362618966156</v>
+        <v>-0.186218734947011</v>
       </c>
     </row>
     <row r="30">
@@ -1301,22 +1301,22 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.2560800864553919</v>
+        <v>0.179324666588675</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>2.315857967276955</v>
+        <v>2.327826513338477</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.09781919174750933</v>
+        <v>-0.09739749269000213</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>1.086398224993618</v>
+        <v>1.325922222426646</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>-0.2054624942343628</v>
+        <v>-0.1479457332728328</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>1.425408836452498</v>
+        <v>1.343471602094273</v>
       </c>
     </row>
     <row r="31">
@@ -1342,7 +1342,7 @@
         <v>-0.172652822346914</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.125829024639307</v>
+        <v>0.1258290246393067</v>
       </c>
     </row>
     <row r="32">
@@ -1353,22 +1353,22 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.420517565699397</v>
+        <v>-0.4423028195070473</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>0.1688504372387031</v>
+        <v>0.1707960775590812</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.2955707887159021</v>
+        <v>-0.301287209390327</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.1459432390835071</v>
+        <v>-0.1351214929287678</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.2889037314151521</v>
+        <v>-0.2965193911158898</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.01510570597052007</v>
+        <v>-0.03355884915571581</v>
       </c>
     </row>
     <row r="33">
@@ -1379,22 +1379,22 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.1288900453281654</v>
+        <v>0.08231626687328179</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>1.07812479474721</v>
+        <v>1.117094436129067</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.01067489510574136</v>
+        <v>-0.006335711388709116</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.1450986037402701</v>
+        <v>0.1863098693633375</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>-0.0411493951158665</v>
+        <v>-0.03141726786654801</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.2911802078722934</v>
+        <v>0.2714989015624624</v>
       </c>
     </row>
     <row r="34">
